--- a/VDM/aspose/企业信息导入模板.xlsx
+++ b/VDM/aspose/企业信息导入模板.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18352" windowHeight="8055"/>
+    <workbookView windowWidth="18350" windowHeight="6880"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -548,7 +548,7 @@
     </border>
   </borders>
   <cellStyleXfs count="55">
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1328,26 +1328,26 @@
   <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.07079646017699" defaultRowHeight="13.2" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.07272727272727" defaultRowHeight="13.2" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.60176991150442" customWidth="1"/>
-    <col min="2" max="2" width="13.4690265486726" customWidth="1"/>
-    <col min="3" max="3" width="24.070796460177" customWidth="1"/>
-    <col min="4" max="5" width="20.1327433628319" customWidth="1"/>
-    <col min="6" max="6" width="13.4690265486726" style="1" customWidth="1"/>
-    <col min="7" max="7" width="20.1327433628319" customWidth="1"/>
-    <col min="8" max="8" width="11.070796460177" style="1" customWidth="1"/>
-    <col min="9" max="9" width="13.4690265486726" customWidth="1"/>
-    <col min="10" max="10" width="19.8672566371681" customWidth="1"/>
-    <col min="11" max="11" width="13.4690265486726" customWidth="1"/>
-    <col min="12" max="13" width="9.60176991150442" customWidth="1"/>
-    <col min="14" max="14" width="11.1327433628319" style="2" customWidth="1"/>
-    <col min="15" max="15" width="20.1327433628319" customWidth="1"/>
-    <col min="16" max="18" width="13.4690265486726" customWidth="1"/>
-    <col min="19" max="20" width="7.66371681415929" customWidth="1"/>
+    <col min="1" max="1" width="9.6" customWidth="1"/>
+    <col min="2" max="2" width="13.4727272727273" customWidth="1"/>
+    <col min="3" max="3" width="24.0727272727273" customWidth="1"/>
+    <col min="4" max="5" width="20.1363636363636" customWidth="1"/>
+    <col min="6" max="6" width="13.4727272727273" style="1" customWidth="1"/>
+    <col min="7" max="7" width="20.1363636363636" customWidth="1"/>
+    <col min="8" max="8" width="11.0727272727273" style="1" customWidth="1"/>
+    <col min="9" max="9" width="13.4727272727273" customWidth="1"/>
+    <col min="10" max="10" width="19.8636363636364" customWidth="1"/>
+    <col min="11" max="11" width="13.4727272727273" customWidth="1"/>
+    <col min="12" max="13" width="9.6" customWidth="1"/>
+    <col min="14" max="14" width="11.1363636363636" style="2" customWidth="1"/>
+    <col min="15" max="15" width="20.1363636363636" customWidth="1"/>
+    <col min="16" max="18" width="13.4727272727273" customWidth="1"/>
+    <col min="19" max="20" width="7.66363636363636" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:20">
@@ -1413,11 +1413,8 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="5">
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B1 P1 Q1 R1"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B2:B1048576">
-      <formula1>"有限责任公司,股份有限公司,个人独资企业,合伙企业,全民所有制企业,集体所有制企业,农民专业合作社"</formula1>
-    </dataValidation>
+  <dataValidations count="4">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P1 Q1 R1 B$1:B$1048576"/>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="P2:P1048576">
       <formula1>"小规模纳税人,一般纳税人"</formula1>
     </dataValidation>

--- a/VDM/aspose/企业信息导入模板.xlsx
+++ b/VDM/aspose/企业信息导入模板.xlsx
@@ -1328,7 +1328,7 @@
   <dimension ref="A1:T1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.07272727272727" defaultRowHeight="13.2" customHeight="1"/>
